--- a/output_all.xlsx
+++ b/output_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test5.jpg</t>
+          <t>test4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1297.544296784271</v>
+        <v>42.55051859394197</v>
       </c>
       <c r="E2" t="n">
-        <v>1322313</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>42.55051859394197</v>
+        <v>172.6457000398509</v>
       </c>
       <c r="E3" t="n">
-        <v>1422</v>
+        <v>23410</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>172.6457000398509</v>
+        <v>53.18964437182797</v>
       </c>
       <c r="E4" t="n">
-        <v>23410</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>53.18964437182797</v>
+        <v>1002.039455897757</v>
       </c>
       <c r="E5" t="n">
-        <v>2222</v>
+        <v>788605</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test4.jpg</t>
+          <t>test1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1002.039455897757</v>
+        <v>40.96498163017951</v>
       </c>
       <c r="E6" t="n">
-        <v>788605</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>40.96498163017951</v>
+        <v>41.04261099984527</v>
       </c>
       <c r="E7" t="n">
-        <v>1318</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>41.04261099984527</v>
+        <v>45.02218736599077</v>
       </c>
       <c r="E8" t="n">
-        <v>1323</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>45.02218736599077</v>
+        <v>40.96498163017951</v>
       </c>
       <c r="E9" t="n">
-        <v>1592</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>40.96498163017951</v>
+        <v>44.90892382211466</v>
       </c>
       <c r="E10" t="n">
-        <v>1318</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>44.90892382211466</v>
+        <v>40.9805192683753</v>
       </c>
       <c r="E11" t="n">
-        <v>1584</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9805192683753</v>
+        <v>45.03632528041241</v>
       </c>
       <c r="E12" t="n">
-        <v>1319</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>45.03632528041241</v>
+        <v>40.99605101775554</v>
       </c>
       <c r="E13" t="n">
-        <v>1593</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>40.99605101775554</v>
+        <v>45.06458780298101</v>
       </c>
       <c r="E14" t="n">
-        <v>1320</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>45.06458780298101</v>
+        <v>45.00804501057165</v>
       </c>
       <c r="E15" t="n">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>45.00804501057165</v>
+        <v>44.93726647171552</v>
       </c>
       <c r="E16" t="n">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>44.93726647171552</v>
+        <v>45.05045875801765</v>
       </c>
       <c r="E17" t="n">
-        <v>1586</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>45.05045875801765</v>
+        <v>44.99389820996741</v>
       </c>
       <c r="E18" t="n">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>44.99389820996741</v>
+        <v>45.05045875801765</v>
       </c>
       <c r="E19" t="n">
-        <v>1590</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>45.05045875801765</v>
+        <v>45.1351666838205</v>
       </c>
       <c r="E20" t="n">
-        <v>1594</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>45.1351666838205</v>
+        <v>45.03632528041241</v>
       </c>
       <c r="E21" t="n">
-        <v>1600</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>45.03632528041241</v>
+        <v>45.09283261164744</v>
       </c>
       <c r="E22" t="n">
-        <v>1593</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>45.09283261164744</v>
+        <v>44.96559125642004</v>
       </c>
       <c r="E23" t="n">
-        <v>1597</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>44.96559125642004</v>
+        <v>45.07871241947046</v>
       </c>
       <c r="E24" t="n">
-        <v>1588</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>45.07871241947046</v>
+        <v>44.99389820996741</v>
       </c>
       <c r="E25" t="n">
-        <v>1596</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>44.99389820996741</v>
+        <v>40.99605101775554</v>
       </c>
       <c r="E26" t="n">
-        <v>1590</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>40.99605101775554</v>
+        <v>45.03632528041241</v>
       </c>
       <c r="E27" t="n">
-        <v>1320</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>45.03632528041241</v>
+        <v>44.93726647171552</v>
       </c>
       <c r="E28" t="n">
-        <v>1593</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>44.93726647171552</v>
+        <v>45.09283261164744</v>
       </c>
       <c r="E29" t="n">
-        <v>1586</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>45.09283261164744</v>
+        <v>45.02218736599077</v>
       </c>
       <c r="E30" t="n">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
-        <v>45.02218736599077</v>
+        <v>45.00804501057165</v>
       </c>
       <c r="E31" t="n">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
-        <v>45.00804501057165</v>
+        <v>45.03632528041241</v>
       </c>
       <c r="E32" t="n">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>45.03632528041241</v>
+        <v>41.08911822269767</v>
       </c>
       <c r="E33" t="n">
-        <v>1593</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>41.08911822269767</v>
+        <v>41.04261099984527</v>
       </c>
       <c r="E34" t="n">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>41.04261099984527</v>
+        <v>44.96559125642004</v>
       </c>
       <c r="E35" t="n">
-        <v>1323</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>44.96559125642004</v>
+        <v>44.89474578740548</v>
       </c>
       <c r="E36" t="n">
-        <v>1588</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>44.89474578740548</v>
+        <v>44.92309738213999</v>
       </c>
       <c r="E37" t="n">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="38">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>test1.jpg</t>
+          <t>test3.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>44.92309738213999</v>
+        <v>223.4190750849115</v>
       </c>
       <c r="E38" t="n">
-        <v>1585</v>
+        <v>39204</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>223.4190750849115</v>
+        <v>746.3441353867439</v>
       </c>
       <c r="E39" t="n">
-        <v>39204</v>
+        <v>437490</v>
       </c>
     </row>
     <row r="40">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>test3.jpg</t>
+          <t>test2.jpg</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>746.3441353867439</v>
+        <v>768.4659784298009</v>
       </c>
       <c r="E40" t="n">
-        <v>437490</v>
+        <v>463809</v>
       </c>
     </row>
     <row r="41">
@@ -1206,31 +1206,12 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>768.4659784298009</v>
+        <v>698.6106992083201</v>
       </c>
       <c r="E41" t="n">
-        <v>463809</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>test2.jpg</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>698.6106992083201</v>
-      </c>
-      <c r="E42" t="n">
         <v>383319</v>
       </c>
     </row>

--- a/output_all.xlsx
+++ b/output_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>42.55051859394197</v>
+        <v>996.896013560159</v>
       </c>
       <c r="E2" t="n">
-        <v>1422</v>
+        <v>780530</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>172.6457000398509</v>
+        <v>115.6684967312928</v>
       </c>
       <c r="E3" t="n">
-        <v>23410</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test4.jpg</t>
+          <t>test1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>53.18964437182797</v>
+        <v>40.94943809646488</v>
       </c>
       <c r="E4" t="n">
-        <v>2222</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test4.jpg</t>
+          <t>test1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1002.039455897757</v>
+        <v>40.99605101775554</v>
       </c>
       <c r="E5" t="n">
-        <v>788605</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>40.96498163017951</v>
+        <v>44.97974695998382</v>
       </c>
       <c r="E6" t="n">
-        <v>1318</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>41.04261099984527</v>
+        <v>40.94943809646488</v>
       </c>
       <c r="E7" t="n">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>45.02218736599077</v>
+        <v>44.83798881681494</v>
       </c>
       <c r="E8" t="n">
-        <v>1592</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>40.96498163017951</v>
+        <v>40.93388866051544</v>
       </c>
       <c r="E9" t="n">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>44.90892382211466</v>
+        <v>44.99389820996741</v>
       </c>
       <c r="E10" t="n">
-        <v>1584</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="11">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>40.9805192683753</v>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>45.03632528041241</v>
+        <v>44.99389820996741</v>
       </c>
       <c r="E12" t="n">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>40.99605101775554</v>
+        <v>44.95143109506864</v>
       </c>
       <c r="E13" t="n">
-        <v>1320</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>45.06458780298101</v>
+        <v>44.90892382211466</v>
       </c>
       <c r="E14" t="n">
-        <v>1595</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>45.00804501057165</v>
+        <v>45.05045875801765</v>
       </c>
       <c r="E15" t="n">
-        <v>1591</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>44.93726647171552</v>
+        <v>44.95143109506864</v>
       </c>
       <c r="E16" t="n">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>45.05045875801765</v>
+        <v>44.96559125642004</v>
       </c>
       <c r="E17" t="n">
-        <v>1594</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>44.99389820996741</v>
+        <v>45.12105973967727</v>
       </c>
       <c r="E18" t="n">
-        <v>1590</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>45.05045875801765</v>
+        <v>44.97974695998382</v>
       </c>
       <c r="E19" t="n">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>45.1351666838205</v>
+        <v>45.07871241947046</v>
       </c>
       <c r="E20" t="n">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>45.03632528041241</v>
+        <v>44.92309738213999</v>
       </c>
       <c r="E21" t="n">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>45.09283261164744</v>
+        <v>45.02218736599077</v>
       </c>
       <c r="E22" t="n">
-        <v>1597</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>44.96559125642004</v>
+        <v>44.97974695998382</v>
       </c>
       <c r="E23" t="n">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>45.07871241947046</v>
+        <v>40.9805192683753</v>
       </c>
       <c r="E24" t="n">
-        <v>1596</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>44.99389820996741</v>
+        <v>45.00804501057165</v>
       </c>
       <c r="E25" t="n">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>40.99605101775554</v>
+        <v>44.85218479273398</v>
       </c>
       <c r="E26" t="n">
-        <v>1320</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>45.03632528041241</v>
+        <v>45.05045875801765</v>
       </c>
       <c r="E27" t="n">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>44.93726647171552</v>
+        <v>44.97974695998382</v>
       </c>
       <c r="E28" t="n">
-        <v>1586</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>45.09283261164744</v>
+        <v>44.93726647171552</v>
       </c>
       <c r="E29" t="n">
-        <v>1597</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
-        <v>45.02218736599077</v>
+        <v>44.96559125642004</v>
       </c>
       <c r="E30" t="n">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
-        <v>45.00804501057165</v>
+        <v>41.07362166615078</v>
       </c>
       <c r="E31" t="n">
-        <v>1591</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>45.03632528041241</v>
+        <v>41.02709687681892</v>
       </c>
       <c r="E32" t="n">
-        <v>1593</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>41.08911822269767</v>
+        <v>44.89474578740548</v>
       </c>
       <c r="E33" t="n">
-        <v>1326</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
-        <v>41.04261099984527</v>
+        <v>44.89474578740548</v>
       </c>
       <c r="E34" t="n">
-        <v>1323</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
-        <v>44.96559125642004</v>
+        <v>44.89474578740548</v>
       </c>
       <c r="E35" t="n">
-        <v>1588</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="36">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>test1.jpg</t>
+          <t>test3.jpg</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>44.89474578740548</v>
+        <v>221.7803346842638</v>
       </c>
       <c r="E36" t="n">
-        <v>1583</v>
+        <v>38631</v>
       </c>
     </row>
     <row r="37">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>test1.jpg</t>
+          <t>test3.jpg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>44.92309738213999</v>
+        <v>746.2434764605367</v>
       </c>
       <c r="E37" t="n">
-        <v>1585</v>
+        <v>437372</v>
       </c>
     </row>
     <row r="38">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>test3.jpg</t>
+          <t>test2.jpg</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>223.4190750849115</v>
+        <v>772.4857735837002</v>
       </c>
       <c r="E38" t="n">
-        <v>39204</v>
+        <v>468674</v>
       </c>
     </row>
     <row r="39">
@@ -1164,55 +1164,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>test3.jpg</t>
+          <t>test2.jpg</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>746.3441353867439</v>
+        <v>699.741575556933</v>
       </c>
       <c r="E39" t="n">
-        <v>437490</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>test2.jpg</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>768.4659784298009</v>
-      </c>
-      <c r="E40" t="n">
-        <v>463809</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>test2.jpg</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>698.6106992083201</v>
-      </c>
-      <c r="E41" t="n">
-        <v>383319</v>
+        <v>384561</v>
       </c>
     </row>
   </sheetData>
